--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -36,9 +36,6 @@
     <t>vlan</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>2FA_N</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>ram</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>ovirtmgmt</t>
-  </si>
-  <si>
     <t>10.1.0.1</t>
   </si>
   <si>
@@ -105,22 +96,22 @@
     <t>True</t>
   </si>
   <si>
-    <t>8864f0f4-5790-428f-bfe0-3c027327db2a</t>
-  </si>
-  <si>
-    <t>c2c44417-8547-4d87-82d1-75c9206ef2c9</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
-    <t>e76ef216-0877-4d70-8f38-bb1538566297</t>
-  </si>
-  <si>
-    <t>9ea06605-d39f-4dcf-98a6-30a4f2c168ec</t>
-  </si>
-  <si>
     <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>88070f87-cde2-46f3-8d2f-b6ce26f818f7</t>
+  </si>
+  <si>
+    <t>c73603c9-bbee-4ce7-8951-5b4457c90ff4</t>
+  </si>
+  <si>
+    <t>c746e044-1d0b-41e5-a1c3-def9b0855cdb</t>
+  </si>
+  <si>
+    <t>30331767-9ee1-49d7-b84e-6738e3e4d3fa</t>
   </si>
 </sst>
 </file>
@@ -469,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,19 +473,17 @@
     <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -509,192 +498,162 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>123</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>123</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1">
-        <v>311</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>123</v>
+      </c>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1">
-        <v>100</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>27</v>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1">
-        <v>318</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>123</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1">
-        <v>400</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="K5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1">
-        <v>318</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1">
-        <v>400</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1">
-        <v>318</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1">
-        <v>400</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -42,33 +42,21 @@
     <t>7ba66f3f-7eab-49c0-aaa3-02e69dcf0cba</t>
   </si>
   <si>
-    <t>600507680C8002D9480000000000081D</t>
-  </si>
-  <si>
     <t>admin_db</t>
   </si>
   <si>
     <t>e28cfa37-84ce-42e1-b99e-88add4f2d61d</t>
   </si>
   <si>
-    <t>600507680C8002D94800000000000D4E</t>
-  </si>
-  <si>
     <t>admin-8</t>
   </si>
   <si>
     <t>ff4019be-51d3-4fe5-ac07-190532cc972a</t>
   </si>
   <si>
-    <t>600507680C8002D94800000000000CCD</t>
-  </si>
-  <si>
     <t>os</t>
   </si>
   <si>
-    <t>lun_id</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -112,6 +100,15 @@
   </si>
   <si>
     <t>30331767-9ee1-49d7-b84e-6738e3e4d3fa</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>node02.svt.hn</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
 </sst>
 </file>
@@ -460,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,9 +478,9 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -501,22 +498,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -524,13 +524,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>123</v>
@@ -542,30 +542,30 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>123</v>
@@ -577,30 +577,30 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>123</v>
@@ -612,30 +612,30 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>123</v>
@@ -647,13 +647,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -108,7 +108,19 @@
     <t>node02.svt.hn</t>
   </si>
   <si>
-    <t>cluster</t>
+    <t>lun_name</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -460,7 +472,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +562,9 @@
       <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -585,6 +600,9 @@
       <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -620,6 +638,9 @@
       <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -654,6 +675,9 @@
       </c>
       <c r="K5" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>node04.svt.hn</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +548,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
@@ -595,7 +598,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>20</v>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -36,27 +36,6 @@
     <t>vlan</t>
   </si>
   <si>
-    <t>2FA_N</t>
-  </si>
-  <si>
-    <t>7ba66f3f-7eab-49c0-aaa3-02e69dcf0cba</t>
-  </si>
-  <si>
-    <t>admin_db</t>
-  </si>
-  <si>
-    <t>e28cfa37-84ce-42e1-b99e-88add4f2d61d</t>
-  </si>
-  <si>
-    <t>admin-8</t>
-  </si>
-  <si>
-    <t>ff4019be-51d3-4fe5-ac07-190532cc972a</t>
-  </si>
-  <si>
-    <t>os</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -66,42 +45,12 @@
     <t>ram</t>
   </si>
   <si>
-    <t>10.1.0.1</t>
-  </si>
-  <si>
-    <t>10.1.21.40</t>
-  </si>
-  <si>
-    <t>10.1.21.41</t>
-  </si>
-  <si>
-    <t>10.1.21.45</t>
-  </si>
-  <si>
     <t>bootable</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>255.255.0.0</t>
   </si>
   <si>
-    <t>88070f87-cde2-46f3-8d2f-b6ce26f818f7</t>
-  </si>
-  <si>
-    <t>c73603c9-bbee-4ce7-8951-5b4457c90ff4</t>
-  </si>
-  <si>
-    <t>c746e044-1d0b-41e5-a1c3-def9b0855cdb</t>
-  </si>
-  <si>
-    <t>30331767-9ee1-49d7-b84e-6738e3e4d3fa</t>
-  </si>
-  <si>
     <t>host</t>
   </si>
   <si>
@@ -111,38 +60,47 @@
     <t>lun_name</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>node04.svt.hn</t>
+    <t>MLMN_DB</t>
+  </si>
+  <si>
+    <t>6fae8d51-c1e5-4d40-9eae-e3c3d1c9fbf6</t>
+  </si>
+  <si>
+    <t>10.16.150.6</t>
+  </si>
+  <si>
+    <t>10.16.150.1</t>
+  </si>
+  <si>
+    <t>lun_id</t>
+  </si>
+  <si>
+    <t>60002AC00000000000000215000199C3</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Data_MLMN_DB</t>
+  </si>
+  <si>
+    <t>3600508b1001ce6d833711cf659b7380a</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF777777"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -161,37 +119,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,216 +409,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <v>16384</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>123</v>
+      </c>
+      <c r="G3">
+        <v>16384</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>101</v>
+      </c>
+      <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
-        <v>124</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>123</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>123</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>123</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>33</v>
-      </c>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -54,40 +54,79 @@
     <t>host</t>
   </si>
   <si>
+    <t>lun_name</t>
+  </si>
+  <si>
+    <t>10.16.150.1</t>
+  </si>
+  <si>
+    <t>lun_id</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>CHC_CORE</t>
+  </si>
+  <si>
+    <t>924bf169-8d86-4cb0-b309-20d551b2403c</t>
+  </si>
+  <si>
+    <t>10.3.11.22</t>
+  </si>
+  <si>
+    <t>CHC_CORE_OS</t>
+  </si>
+  <si>
+    <t>3600507680c8002d9480000000000082d</t>
+  </si>
+  <si>
+    <t>CHC_CORE1</t>
+  </si>
+  <si>
+    <t>CHC_CORE2</t>
+  </si>
+  <si>
+    <t>CHC_CORE3</t>
+  </si>
+  <si>
+    <t>924bf169-8d86-4cb0-b309-20d551b2403d</t>
+  </si>
+  <si>
+    <t>924bf169-8d86-4cb0-b309-20d551b2403e</t>
+  </si>
+  <si>
+    <t>924bf169-8d86-4cb0-b309-20d551b2403f</t>
+  </si>
+  <si>
+    <t>10.3.11.23</t>
+  </si>
+  <si>
+    <t>10.3.11.24</t>
+  </si>
+  <si>
+    <t>10.3.11.25</t>
+  </si>
+  <si>
+    <t>CHC_CORE1_OS</t>
+  </si>
+  <si>
+    <t>CHC_CORE2_OS</t>
+  </si>
+  <si>
+    <t>CHC_CORE3_OS</t>
+  </si>
+  <si>
+    <t>3600507680c8002d9480000000000082e</t>
+  </si>
+  <si>
+    <t>3600507680c8002d9480000000000082f</t>
+  </si>
+  <si>
+    <t>3600507680c8002d9480000000000082g</t>
+  </si>
+  <si>
     <t>node02.svt.hn</t>
-  </si>
-  <si>
-    <t>lun_name</t>
-  </si>
-  <si>
-    <t>MLMN_DB</t>
-  </si>
-  <si>
-    <t>6fae8d51-c1e5-4d40-9eae-e3c3d1c9fbf6</t>
-  </si>
-  <si>
-    <t>10.16.150.6</t>
-  </si>
-  <si>
-    <t>10.16.150.1</t>
-  </si>
-  <si>
-    <t>lun_id</t>
-  </si>
-  <si>
-    <t>60002AC00000000000000215000199C3</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Data_MLMN_DB</t>
-  </si>
-  <si>
-    <t>3600508b1001ce6d833711cf659b7380a</t>
-  </si>
-  <si>
-    <t>size</t>
   </si>
 </sst>
 </file>
@@ -111,12 +150,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -128,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,23 +466,23 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -441,34 +495,34 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -476,115 +530,167 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>8192</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>123</v>
-      </c>
-      <c r="G2">
-        <v>16384</v>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2" s="2">
+        <v>200</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>8192</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>123</v>
-      </c>
-      <c r="G3">
-        <v>16384</v>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L3">
-        <v>101</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4" s="2"/>
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>8192</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>311</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4">
+        <v>400</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5" s="2"/>
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>8192</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>311</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5">
+        <v>500</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
